--- a/biology/Médecine/Françoise_Mézières/Françoise_Mézières.xlsx
+++ b/biology/Médecine/Françoise_Mézières/Françoise_Mézières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_M%C3%A9zi%C3%A8res</t>
+          <t>Françoise_Mézières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Mézières est une kinésithérapeute française (1909-1991), inventeuse du concept de chaîne musculaire et de la Méthode Mézières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_M%C3%A9zi%C3%A8res</t>
+          <t>Françoise_Mézières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mise à la porte du foyer familial à l'âge de 16 ans par un père autoritaire, la jeune fille doit s’assumer toute seule. Parallèlement à de nombreux petits boulots, elle s'essaye, avec succès, à l'escrime et à l'équitation. Véritable autodidacte, c'est presque par hasard qu'elle est amenée à entreprendre des études de kinésithérapie, tout en travaillant la nuit pour payer ses études.
 Fruit de la Seconde Guerre mondiale et de l'épidémie de poliomyélite qui la suivit, la profession est naissante. L'optique de cette kinésithérapie originelle est fondée sur la récupération de la force musculaire, les grands blessés, puis les paralysés ne laissant guère d'autres options.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_M%C3%A9zi%C3%A8res</t>
+          <t>Françoise_Mézières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Naissance d'une méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au lendemain de la guerre, l’école de la rue Cujas retrouve sa trace et lui demande de venir enseigner. Au printemps 1947, alors qu’elle vient juste de terminer la rédaction d’un opuscule, une sorte de compilation de la gymnastique médicale de l’époque[1], elle fait ce qu’elle appellera par la suite son « observation princeps ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au lendemain de la guerre, l’école de la rue Cujas retrouve sa trace et lui demande de venir enseigner. Au printemps 1947, alors qu’elle vient juste de terminer la rédaction d’un opuscule, une sorte de compilation de la gymnastique médicale de l’époque, elle fait ce qu’elle appellera par la suite son « observation princeps ».
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_M%C3%A9zi%C3%A8res</t>
+          <t>Françoise_Mézières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mézières n’a écrit que trois opuscules et quelques articles. Ils sont tous épuisés et son légataire universel ne les a pas fait rééditer. Un seul ouvrage retrace sa vie et son œuvre[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mézières n’a écrit que trois opuscules et quelques articles. Ils sont tous épuisés et son légataire universel ne les a pas fait rééditer. Un seul ouvrage retrace sa vie et son œuvre.
 Livres
 La gymnastique statique, Paris, Vuibert, 1947.
 L’Homéopathie française, Ed. G. Doin, avril 1972, no 4 p. 195.
